--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1209,17 +1209,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.87890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.04296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.3046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1228,24 +1228,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.79296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.25390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="37.33203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="185.94140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="159.4140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="280">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -258,13 +258,10 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}</t>
   </si>
   <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>infrastructure.documents</t>
   </si>
   <si>
     <t>List.id</t>
@@ -350,7 +347,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -408,10 +405,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -452,7 +445,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -495,7 +488,7 @@
     <t>The current state of the list.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/list-status|4.0.1</t>
   </si>
   <si>
     <t>.status[current=active;retired=obsolete;entered-in-error=nullified]</t>
@@ -522,7 +515,7 @@
     <t>The processing mode that applies to this list.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-mode|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/list-mode|4.0.1</t>
   </si>
   <si>
     <t>.outBoundRelationship[typeCode=COMP].target[classCode=OBS"].value</t>
@@ -742,10 +735,6 @@
   </si>
   <si>
     <t xml:space="preserve">lst-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
 </t>
   </si>
   <si>
@@ -1467,15 +1456,15 @@
         <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1486,28 +1475,28 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1557,13 +1546,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1580,10 +1569,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1594,25 +1583,25 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1663,19 +1652,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1686,10 +1675,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1700,28 +1689,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1771,19 +1760,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -1794,10 +1783,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1808,7 +1797,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1820,16 +1809,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1855,43 +1844,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -1902,21 +1891,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1928,16 +1917,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1987,22 +1976,22 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>20</v>
@@ -2010,14 +1999,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2036,16 +2025,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2095,7 +2084,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2107,10 +2096,10 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>20</v>
@@ -2118,14 +2107,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2144,16 +2133,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2203,7 +2192,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2215,10 +2204,10 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>20</v>
@@ -2226,14 +2215,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2246,25 +2235,25 @@
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2313,7 +2302,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2325,10 +2314,10 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>20</v>
@@ -2336,10 +2325,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2362,13 +2351,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2419,7 +2408,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2431,21 +2420,21 @@
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2453,31 +2442,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="J12" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2503,57 +2492,57 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Z12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2561,34 +2550,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="J13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -2613,57 +2602,57 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2674,29 +2663,29 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -2709,7 +2698,7 @@
         <v>20</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U14" t="s" s="2">
         <v>20</v>
@@ -2745,22 +2734,22 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
@@ -2768,10 +2757,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2782,31 +2771,31 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -2831,57 +2820,57 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2892,31 +2881,31 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -2965,33 +2954,33 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3002,7 +2991,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -3014,13 +3003,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3071,33 +3060,33 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3108,31 +3097,31 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3181,68 +3170,68 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3291,33 +3280,33 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3328,7 +3317,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3340,19 +3329,19 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3377,46 +3366,46 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -3424,10 +3413,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3450,13 +3439,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3507,7 +3496,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3519,10 +3508,10 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
@@ -3530,10 +3519,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3556,16 +3545,16 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3615,7 +3604,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3624,13 +3613,13 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
@@ -3638,10 +3627,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3652,7 +3641,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3664,13 +3653,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3721,13 +3710,13 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
@@ -3736,7 +3725,7 @@
         <v>20</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
@@ -3744,14 +3733,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3770,16 +3759,16 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3829,7 +3818,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -3841,10 +3830,10 @@
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -3852,14 +3841,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3872,25 +3861,25 @@
         <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -3939,7 +3928,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -3951,10 +3940,10 @@
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -3962,10 +3951,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3976,7 +3965,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -3988,19 +3977,19 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4025,13 +4014,13 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4049,22 +4038,22 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
@@ -4072,10 +4061,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4086,97 +4075,97 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="P27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="R27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="O27" t="s" s="2">
+      <c r="AJ27" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
@@ -4184,10 +4173,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4198,7 +4187,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4210,17 +4199,17 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4269,22 +4258,22 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -4292,10 +4281,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4303,10 +4292,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4318,13 +4307,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4375,22 +4364,22 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
@@ -4398,10 +4387,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4412,7 +4401,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4424,19 +4413,19 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -4461,13 +4450,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -4485,22 +4474,22 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
+++ b/StructureDefinition-ncpi-specimen-NcpiSpecimenCollection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
